--- a/OutputFiles/TC18_Canine_Filter_Diagnosis-RespCarciStg3_WebData.xlsx
+++ b/OutputFiles/TC18_Canine_Filter_Diagnosis-RespCarciStg3_WebData.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebDataCanine" r:id="rId3" sheetId="1"/>
+    <sheet name="WebData" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/OutputFiles/TC18_Canine_Filter_Diagnosis-RespCarciStg3_WebData.xlsx
+++ b/OutputFiles/TC18_Canine_Filter_Diagnosis-RespCarciStg3_WebData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="105">
   <si>
     <t>Case ID</t>
   </si>
@@ -41,124 +41,292 @@
     <t>Neutered Status</t>
   </si>
   <si>
-    <t>NCATS-COP01CCB010015</t>
-  </si>
-  <si>
-    <t>NCATS-COP01</t>
-  </si>
-  <si>
-    <t>Transcriptomics</t>
+    <t>COTC007B0101</t>
+  </si>
+  <si>
+    <t>COTC007B</t>
+  </si>
+  <si>
+    <t>Clinical Trial</t>
+  </si>
+  <si>
+    <t>Boxer</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>IIIA</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>Spayed female</t>
+  </si>
+  <si>
+    <t>COTC007B0209</t>
+  </si>
+  <si>
+    <t>Doberman Pinscher</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>Castrated male</t>
+  </si>
+  <si>
+    <t>COTC007B0210</t>
+  </si>
+  <si>
+    <t>Bullmastiff</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>Male Phenotype</t>
+  </si>
+  <si>
+    <t>COTC007B0211</t>
+  </si>
+  <si>
+    <t>Beagle</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>COTC007B0213</t>
+  </si>
+  <si>
+    <t>Belgian Malinois</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>COTC007B0214</t>
+  </si>
+  <si>
+    <t>Golden Retriever</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>COTC007B0218</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>COTC007B0406</t>
+  </si>
+  <si>
+    <t>Mixed Breed</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>COTC007B0407</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>COTC007B0408</t>
+  </si>
+  <si>
+    <t>Chesapeake Bay Retriever</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>COTC007B0409</t>
+  </si>
+  <si>
+    <t>American Staffordshire Terrier</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>COTC007B0410</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>COTC007B0411</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>COTC007B0414</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>COTC007B0415</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>COTC007B0501</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>COTC007B0502</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Lymphoma :: Stage 3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010031</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>NCATS-COP01CCB010045</t>
-  </si>
-  <si>
-    <t>Beagle</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010093</t>
-  </si>
-  <si>
-    <t>Mixed Breed</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010178</t>
-  </si>
-  <si>
-    <t>Staffordshire Bull Terrier</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010208</t>
+    <t>COTC007B0503</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>COTC007B0504</t>
+  </si>
+  <si>
+    <t>Bernese Mountain Dog</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>COTC007B0505</t>
+  </si>
+  <si>
+    <t>Rottweiler</t>
+  </si>
+  <si>
+    <t>COTC007B0506</t>
+  </si>
+  <si>
+    <t>-76.8</t>
+  </si>
+  <si>
+    <t>COTC007B0508</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>COTC007B0509</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Female Phenotype</t>
+  </si>
+  <si>
+    <t>COTC007B0510</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>COTC007B0513</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>COTC007B0607</t>
+  </si>
+  <si>
+    <t>Border Collie</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>COTC007B0609</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>COTC007B0610</t>
+  </si>
+  <si>
+    <t>Cavalier King Charles Spaniel</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>COTC007B0611</t>
+  </si>
+  <si>
+    <t>Flat-Coated Retriever</t>
+  </si>
+  <si>
+    <t>COTC007B0613</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>COTC007B0614</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>COTC007B0615</t>
+  </si>
+  <si>
+    <t>Irish Wolfhound</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>COTC007B0617</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>COTC007B1601</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>COTC007B1603</t>
+  </si>
+  <si>
+    <t>COTC007B1604</t>
+  </si>
+  <si>
+    <t>COTC007B1605</t>
+  </si>
+  <si>
+    <t>COTC007B1609</t>
   </si>
   <si>
     <t>Vizsla</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010233</t>
-  </si>
-  <si>
-    <t>Golden Retriever</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010234</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010235</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010243</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010311</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030001</t>
-  </si>
-  <si>
-    <t>Labrador Retriever</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030156</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030300</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB050004</t>
-  </si>
-  <si>
-    <t>Bouvier des Flandres</t>
-  </si>
-  <si>
-    <t>13</t>
   </si>
 </sst>
 </file>
@@ -203,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -263,42 +431,36 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -307,27 +469,24 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -336,27 +495,24 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -365,27 +521,24 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -394,27 +547,24 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -429,21 +579,18 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -452,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -461,18 +608,15 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -481,27 +625,24 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -510,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -519,18 +660,15 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -539,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -548,18 +686,15 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -568,27 +703,24 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -597,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -606,18 +738,15 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -626,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -635,18 +764,15 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -655,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -664,13 +790,608 @@
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
         <v>23</v>
       </c>
-      <c r="I16" t="s">
-        <v>17</v>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
